--- a/server/src/modules/dataExcel/data/teachers.xlsx
+++ b/server/src/modules/dataExcel/data/teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuluong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150EACF-3AED-454E-8B94-6882AF5D3695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6203F3A0-0A6A-2A42-96DA-B181179BA3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16140" xr2:uid="{F7FC6003-1A91-5340-8BC6-3655C4A48D10}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{F7FC6003-1A91-5340-8BC6-3655C4A48D10}"/>
   </bookViews>
   <sheets>
     <sheet name="teachers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="160">
   <si>
     <t>Q507</t>
   </si>
@@ -136,13 +136,385 @@
   </si>
   <si>
     <t>SHS</t>
+  </si>
+  <si>
+    <t>Q01</t>
+  </si>
+  <si>
+    <t>HMM105</t>
+  </si>
+  <si>
+    <t>Culinary Culture</t>
+  </si>
+  <si>
+    <t>XNHM221290</t>
+  </si>
+  <si>
+    <t>Nguyễn Huỳnh Mai Xuân</t>
+  </si>
+  <si>
+    <t>B-07.06</t>
+  </si>
+  <si>
+    <t>17DNHQA1</t>
+  </si>
+  <si>
+    <t>29/04/19 - 23/06/19</t>
+  </si>
+  <si>
+    <t>35-42</t>
+  </si>
+  <si>
+    <t>0913.909.817</t>
+  </si>
+  <si>
+    <t>nguyenhuynhmaixuan.nhks@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đoàn Duy Thái </t>
+  </si>
+  <si>
+    <t>Lâm</t>
+  </si>
+  <si>
+    <t>Q05</t>
+  </si>
+  <si>
+    <t>CAP220</t>
+  </si>
+  <si>
+    <t>CAD - Practice</t>
+  </si>
+  <si>
+    <t>KNT0280177</t>
+  </si>
+  <si>
+    <t>ThS. Nguyễn Thọ Khôi</t>
+  </si>
+  <si>
+    <t>B-06.05</t>
+  </si>
+  <si>
+    <t>18DOTQA1</t>
+  </si>
+  <si>
+    <t>06/05/19 - 16/06/19</t>
+  </si>
+  <si>
+    <t>36,38-41</t>
+  </si>
+  <si>
+    <t>0936.598.019</t>
+  </si>
+  <si>
+    <t>k.nguyentho@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thọ </t>
+  </si>
+  <si>
+    <t>Khôi</t>
+  </si>
+  <si>
+    <t>INS104</t>
+  </si>
+  <si>
+    <t>Principles and Practices of Insurance</t>
+  </si>
+  <si>
+    <t>Nghiêm Tấn Phong?</t>
+  </si>
+  <si>
+    <t>B-06.09</t>
+  </si>
+  <si>
+    <t>16DTCQA1</t>
+  </si>
+  <si>
+    <t>0908.400.909</t>
+  </si>
+  <si>
+    <t>nghiemtanphong@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ Đắc Việt </t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Q740</t>
+  </si>
+  <si>
+    <t>POS102</t>
+  </si>
+  <si>
+    <t>Principles of Marxism - Leninism</t>
+  </si>
+  <si>
+    <t>VHHH171083</t>
+  </si>
+  <si>
+    <t>Hà Huyền Hoài Vân</t>
+  </si>
+  <si>
+    <t>B-06.10</t>
+  </si>
+  <si>
+    <t>16DKSQA1</t>
+  </si>
+  <si>
+    <t>0974.276.270</t>
+  </si>
+  <si>
+    <t>hoaivanhutech@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Huyền Hoài </t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
+    <t>Q02</t>
+  </si>
+  <si>
+    <t>ELD310</t>
+  </si>
+  <si>
+    <t>Workshop in Microcontrollers</t>
+  </si>
+  <si>
+    <t>TTV0300174</t>
+  </si>
+  <si>
+    <t>Trần Viết Thắng</t>
+  </si>
+  <si>
+    <t>E3.02.10</t>
+  </si>
+  <si>
+    <t>17DOTQA2</t>
+  </si>
+  <si>
+    <t>36-41</t>
+  </si>
+  <si>
+    <t>0962.669.139</t>
+  </si>
+  <si>
+    <t>tvthang74@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Viết </t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>Q08</t>
+  </si>
+  <si>
+    <t>ACC114</t>
+  </si>
+  <si>
+    <t>Principles of Accounting</t>
+  </si>
+  <si>
+    <t>QNTN290187</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Quỳnh</t>
+  </si>
+  <si>
+    <t>B-07.07</t>
+  </si>
+  <si>
+    <t>17DQTQA1</t>
+  </si>
+  <si>
+    <t>0969.219.216</t>
+  </si>
+  <si>
+    <t>ngocquynh.ngt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Ngọc </t>
+  </si>
+  <si>
+    <t>Quỳnh</t>
+  </si>
+  <si>
+    <t>ENG120</t>
+  </si>
+  <si>
+    <t>Listening and Speaking 4</t>
+  </si>
+  <si>
+    <t>WS00220764</t>
+  </si>
+  <si>
+    <t>Steven Weiner</t>
+  </si>
+  <si>
+    <t>B-07.08</t>
+  </si>
+  <si>
+    <t>17DTAQA1</t>
+  </si>
+  <si>
+    <t>079.7730.510</t>
+  </si>
+  <si>
+    <t>sgw777@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven </t>
+  </si>
+  <si>
+    <t>Weiner</t>
+  </si>
+  <si>
+    <t>Q767</t>
+  </si>
+  <si>
+    <t>SKL102</t>
+  </si>
+  <si>
+    <t>Presentation and Job Seeking Skills</t>
+  </si>
+  <si>
+    <t>DĐK0011168</t>
+  </si>
+  <si>
+    <t>Đoàn Khánh Diễm</t>
+  </si>
+  <si>
+    <t>B-07.10</t>
+  </si>
+  <si>
+    <t>17DTAQA2</t>
+  </si>
+  <si>
+    <t>29/04/19 - 30/06/19</t>
+  </si>
+  <si>
+    <t>35-43</t>
+  </si>
+  <si>
+    <t>0903.095.268</t>
+  </si>
+  <si>
+    <t>diemkhanhdoan@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đoàn Khánh </t>
+  </si>
+  <si>
+    <t>Diễm</t>
+  </si>
+  <si>
+    <t>Q06</t>
+  </si>
+  <si>
+    <t>COS211</t>
+  </si>
+  <si>
+    <t>Graph Theory</t>
+  </si>
+  <si>
+    <t>TPST010785</t>
+  </si>
+  <si>
+    <t>Phạm Sự Tiến Trình</t>
+  </si>
+  <si>
+    <t>B-07.09</t>
+  </si>
+  <si>
+    <t>17DTHQA1</t>
+  </si>
+  <si>
+    <t>389.522.914</t>
+  </si>
+  <si>
+    <t>phamsutientrinh@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Thị Ngọc </t>
+  </si>
+  <si>
+    <t>Thơ?</t>
+  </si>
+  <si>
+    <t>LNPT191083</t>
+  </si>
+  <si>
+    <t>Nguyễn Phụ Thượng Lưu</t>
+  </si>
+  <si>
+    <t>18DOTQA2</t>
+  </si>
+  <si>
+    <t>0909.744.607</t>
+  </si>
+  <si>
+    <t>npt.luu@hutech.edu.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Phụ Thượng </t>
+  </si>
+  <si>
+    <t>Lưu</t>
+  </si>
+  <si>
+    <t>ENG159</t>
+  </si>
+  <si>
+    <t>English Listening and Speaking 1</t>
+  </si>
+  <si>
+    <t>YVTP010186</t>
+  </si>
+  <si>
+    <t>Võ Tú Phi Yến</t>
+  </si>
+  <si>
+    <t>B-07.05</t>
+  </si>
+  <si>
+    <t>18DTAQA1</t>
+  </si>
+  <si>
+    <t>06/05/19 - 30/06/19</t>
+  </si>
+  <si>
+    <t>36,38-43</t>
+  </si>
+  <si>
+    <t>0988 608 336</t>
+  </si>
+  <si>
+    <t>vtp.yen@hutech.edu.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Tú Phi </t>
+  </si>
+  <si>
+    <t>Yến</t>
+  </si>
+  <si>
+    <t>347.270.787</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,8 +561,34 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +601,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -275,12 +679,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -315,6 +813,87 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -631,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF972850-2CF9-D54D-84F9-D677B5E77A5D}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +1293,7 @@
       <c r="U1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="10" t="s">
         <v>36</v>
       </c>
       <c r="Z1" s="10"/>
@@ -769,8 +1348,8 @@
         <v>9</v>
       </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="6">
-        <v>347270787</v>
+      <c r="R2" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>15</v>
@@ -835,8 +1414,8 @@
         <v>9</v>
       </c>
       <c r="Q3" s="5"/>
-      <c r="R3" s="6">
-        <v>347270787</v>
+      <c r="R3" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>15</v>
@@ -850,6 +1429,780 @@
       <c r="V3" s="8" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="4" spans="1:26" ht="46" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="14">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14">
+        <v>7</v>
+      </c>
+      <c r="J4" s="14">
+        <v>3</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="46" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="21">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="21">
+        <v>6</v>
+      </c>
+      <c r="I5" s="21">
+        <v>7</v>
+      </c>
+      <c r="J5" s="21">
+        <v>5</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="76" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="23">
+        <v>32364</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="14">
+        <v>6</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14">
+        <v>3</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="61" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="14">
+        <v>5</v>
+      </c>
+      <c r="E7" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="14">
+        <v>6</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="14">
+        <v>5</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" s="20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+    </row>
+    <row r="9" spans="1:26" ht="61" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="14">
+        <v>6</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
+        <v>5</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" s="20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="61" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="14">
+        <v>6</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
+        <v>3</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="V10" s="20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="61" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="14">
+        <v>6</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
+        <v>3</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="T11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="U11" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="V11" s="20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="76" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="33">
+        <v>3</v>
+      </c>
+      <c r="E12" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="33">
+        <v>6</v>
+      </c>
+      <c r="I12" s="33">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33">
+        <v>5</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="V12" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="29">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="29">
+        <v>6</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1</v>
+      </c>
+      <c r="J13" s="29">
+        <v>3</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="U13" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="V13" s="20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="46" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="14">
+        <v>6</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
+        <v>5</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="U14" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="V14" s="20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="76" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="14">
+        <v>3</v>
+      </c>
+      <c r="E15" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="14">
+        <v>6</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14">
+        <v>3</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="U15" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="V15" s="39">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -857,6 +2210,10 @@
     <hyperlink ref="V2" r:id="rId2" display="katatunix@gmail.com" xr:uid="{ED335C04-708F-D047-A1DB-AFE8A6529969}"/>
     <hyperlink ref="S2" r:id="rId3" xr:uid="{6263796C-5DA0-AD49-AA1D-4DCFAD85CE59}"/>
     <hyperlink ref="S3" r:id="rId4" xr:uid="{B84EEA90-6203-F14D-9CF2-246F547C7032}"/>
+    <hyperlink ref="S4" r:id="rId5" display="mailto:nguyenhuynhmaixuan.nhks@gmail.com" xr:uid="{4B15A10B-3526-C541-8121-7BE118F51D68}"/>
+    <hyperlink ref="S5" r:id="rId6" display="mailto:k.nguyentho@gmail.com" xr:uid="{DCD9FC1C-3D10-504C-8F9F-B1D357426513}"/>
+    <hyperlink ref="S6" r:id="rId7" display="mailto:nghiemtanphong@gmail.com" xr:uid="{031AA2A6-A661-1148-B2A4-132FAAC24D64}"/>
+    <hyperlink ref="S13" r:id="rId8" display="mailto:tt.trang@hutech.edu.vn" xr:uid="{CC6E1848-0CD7-544D-94EA-B7FB7666BCDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/src/modules/dataExcel/data/teachers.xlsx
+++ b/server/src/modules/dataExcel/data/teachers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuluong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6203F3A0-0A6A-2A42-96DA-B181179BA3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8833D1D7-E9B9-A840-97FA-2089F7DE193A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{F7FC6003-1A91-5340-8BC6-3655C4A48D10}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>16DTHQA1</t>
   </si>
   <si>
-    <t>15/07/2019 - 18/08/2019</t>
-  </si>
-  <si>
     <t>46-50</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   </si>
   <si>
     <t>347.270.787</t>
+  </si>
+  <si>
+    <t>15/07/19 - 18/08/19</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1233,68 +1233,68 @@
   <sheetData>
     <row r="1" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="Z1" s="10"/>
     </row>
@@ -1339,34 +1339,34 @@
         <v>6</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1399,46 +1399,46 @@
         <v>5</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="46" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="D4" s="14">
         <v>3</v>
@@ -1447,10 +1447,10 @@
         <v>#N/A</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="H4" s="14">
         <v>6</v>
@@ -1462,35 +1462,35 @@
         <v>3</v>
       </c>
       <c r="K4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="17" t="s">
+      <c r="O4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="P4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="T4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="U4" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="V4" s="20">
         <v>35</v>
@@ -1498,13 +1498,13 @@
     </row>
     <row r="5" spans="1:26" ht="46" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="D5" s="21">
         <v>3</v>
@@ -1513,10 +1513,10 @@
         <v>#N/A</v>
       </c>
       <c r="F5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="H5" s="21">
         <v>6</v>
@@ -1528,35 +1528,35 @@
         <v>5</v>
       </c>
       <c r="K5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="M5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="22" t="s">
+      <c r="O5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="22" t="s">
-        <v>58</v>
-      </c>
       <c r="P5" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q5" s="23"/>
       <c r="R5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="T5" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="U5" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="U5" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="V5" s="20">
         <v>34</v>
@@ -1564,13 +1564,13 @@
     </row>
     <row r="6" spans="1:26" ht="76" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="D6" s="14">
         <v>3</v>
@@ -1582,7 +1582,7 @@
         <v>32364</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="14">
         <v>6</v>
@@ -1594,35 +1594,35 @@
         <v>3</v>
       </c>
       <c r="K6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="M6" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="P6" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="23"/>
       <c r="R6" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="T6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="U6" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="V6" s="20">
         <v>30</v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="7" spans="1:26" ht="61" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="D7" s="14">
         <v>5</v>
@@ -1645,10 +1645,10 @@
         <v>#N/A</v>
       </c>
       <c r="F7" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>76</v>
       </c>
       <c r="H7" s="14">
         <v>6</v>
@@ -1660,35 +1660,35 @@
         <v>5</v>
       </c>
       <c r="K7" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="M7" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="P7" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="23"/>
       <c r="R7" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="23" t="s">
+      <c r="T7" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="T7" s="20" t="s">
+      <c r="U7" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="U7" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="V7" s="20">
         <v>92</v>
@@ -1720,13 +1720,13 @@
     </row>
     <row r="9" spans="1:26" ht="61" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -1735,10 +1735,10 @@
         <v>#N/A</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="H9" s="14">
         <v>6</v>
@@ -1750,35 +1750,35 @@
         <v>5</v>
       </c>
       <c r="K9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="M9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="P9" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="23"/>
       <c r="R9" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="T9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="U9" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>94</v>
       </c>
       <c r="V9" s="20">
         <v>68</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="10" spans="1:26" ht="61" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="32" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>97</v>
       </c>
       <c r="D10" s="14">
         <v>3</v>
@@ -1801,10 +1801,10 @@
         <v>#N/A</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="H10" s="14">
         <v>6</v>
@@ -1816,35 +1816,35 @@
         <v>3</v>
       </c>
       <c r="K10" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>101</v>
-      </c>
       <c r="M10" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="31" t="s">
-        <v>45</v>
-      </c>
       <c r="P10" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="T10" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="U10" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>105</v>
       </c>
       <c r="V10" s="20">
         <v>65</v>
@@ -1852,13 +1852,13 @@
     </row>
     <row r="11" spans="1:26" ht="61" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="D11" s="14">
         <v>3</v>
@@ -1867,10 +1867,10 @@
         <v>#N/A</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="H11" s="14">
         <v>6</v>
@@ -1882,35 +1882,35 @@
         <v>3</v>
       </c>
       <c r="K11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="M11" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="P11" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="R11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="S11" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="T11" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="U11" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="U11" s="20" t="s">
-        <v>115</v>
       </c>
       <c r="V11" s="20">
         <v>96</v>
@@ -1918,13 +1918,13 @@
     </row>
     <row r="12" spans="1:26" ht="76" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="D12" s="33">
         <v>3</v>
@@ -1933,10 +1933,10 @@
         <v>#N/A</v>
       </c>
       <c r="F12" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="H12" s="33">
         <v>6</v>
@@ -1948,35 +1948,35 @@
         <v>5</v>
       </c>
       <c r="K12" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="M12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="23" t="s">
+      <c r="O12" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="O12" s="35" t="s">
-        <v>124</v>
-      </c>
       <c r="P12" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="36"/>
       <c r="R12" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="S12" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="T12" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="U12" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>128</v>
       </c>
       <c r="V12" s="20">
         <v>15</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="13" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>131</v>
       </c>
       <c r="D13" s="29">
         <v>3</v>
@@ -1999,10 +1999,10 @@
         <v>#N/A</v>
       </c>
       <c r="F13" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="H13" s="29">
         <v>6</v>
@@ -2014,35 +2014,35 @@
         <v>3</v>
       </c>
       <c r="K13" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="29" t="s">
-        <v>135</v>
-      </c>
       <c r="M13" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="P13" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="S13" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="T13" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="U13" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="U13" s="20" t="s">
-        <v>139</v>
       </c>
       <c r="V13" s="20">
         <v>74</v>
@@ -2050,13 +2050,13 @@
     </row>
     <row r="14" spans="1:26" ht="46" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="D14" s="14">
         <v>3</v>
@@ -2065,10 +2065,10 @@
         <v>#N/A</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>140</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>141</v>
       </c>
       <c r="H14" s="14">
         <v>6</v>
@@ -2080,35 +2080,35 @@
         <v>5</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N14" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="23" t="s">
-        <v>58</v>
-      </c>
       <c r="P14" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="S14" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="S14" s="23" t="s">
+      <c r="T14" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="U14" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="U14" s="20" t="s">
-        <v>146</v>
       </c>
       <c r="V14" s="20">
         <v>45</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="15" spans="1:26" ht="76" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="D15" s="14">
         <v>3</v>
@@ -2131,10 +2131,10 @@
         <v>#N/A</v>
       </c>
       <c r="F15" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>150</v>
       </c>
       <c r="H15" s="14">
         <v>6</v>
@@ -2146,35 +2146,35 @@
         <v>3</v>
       </c>
       <c r="K15" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="M15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="M15" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="N15" s="23" t="s">
+      <c r="O15" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="O15" s="23" t="s">
-        <v>154</v>
-      </c>
       <c r="P15" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="S15" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="T15" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="T15" s="39" t="s">
+      <c r="U15" s="39" t="s">
         <v>157</v>
-      </c>
-      <c r="U15" s="39" t="s">
-        <v>158</v>
       </c>
       <c r="V15" s="39">
         <v>97</v>

--- a/server/src/modules/dataExcel/data/teachers.xlsx
+++ b/server/src/modules/dataExcel/data/teachers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuluong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/WorkSpace/StudentCare/server/src/modules/dataExcel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8833D1D7-E9B9-A840-97FA-2089F7DE193A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6474AC1C-58B7-0945-AA84-BD15E9CB41F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{F7FC6003-1A91-5340-8BC6-3655C4A48D10}"/>
   </bookViews>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/server/src/modules/dataExcel/data/teachers.xlsx
+++ b/server/src/modules/dataExcel/data/teachers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/WorkSpace/StudentCare/server/src/modules/dataExcel/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuluong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6474AC1C-58B7-0945-AA84-BD15E9CB41F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA42E785-96D8-4A4F-BDF0-800D9B8C0B83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="460" windowWidth="27640" windowHeight="16140" xr2:uid="{F7FC6003-1A91-5340-8BC6-3655C4A48D10}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>Q507</t>
   </si>
@@ -238,267 +238,6 @@
   </si>
   <si>
     <t>Huy</t>
-  </si>
-  <si>
-    <t>Q740</t>
-  </si>
-  <si>
-    <t>POS102</t>
-  </si>
-  <si>
-    <t>Principles of Marxism - Leninism</t>
-  </si>
-  <si>
-    <t>VHHH171083</t>
-  </si>
-  <si>
-    <t>Hà Huyền Hoài Vân</t>
-  </si>
-  <si>
-    <t>B-06.10</t>
-  </si>
-  <si>
-    <t>16DKSQA1</t>
-  </si>
-  <si>
-    <t>0974.276.270</t>
-  </si>
-  <si>
-    <t>hoaivanhutech@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hà Huyền Hoài </t>
-  </si>
-  <si>
-    <t>Vân</t>
-  </si>
-  <si>
-    <t>Q02</t>
-  </si>
-  <si>
-    <t>ELD310</t>
-  </si>
-  <si>
-    <t>Workshop in Microcontrollers</t>
-  </si>
-  <si>
-    <t>TTV0300174</t>
-  </si>
-  <si>
-    <t>Trần Viết Thắng</t>
-  </si>
-  <si>
-    <t>E3.02.10</t>
-  </si>
-  <si>
-    <t>17DOTQA2</t>
-  </si>
-  <si>
-    <t>36-41</t>
-  </si>
-  <si>
-    <t>0962.669.139</t>
-  </si>
-  <si>
-    <t>tvthang74@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Viết </t>
-  </si>
-  <si>
-    <t>Thắng</t>
-  </si>
-  <si>
-    <t>Q08</t>
-  </si>
-  <si>
-    <t>ACC114</t>
-  </si>
-  <si>
-    <t>Principles of Accounting</t>
-  </si>
-  <si>
-    <t>QNTN290187</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Ngọc Quỳnh</t>
-  </si>
-  <si>
-    <t>B-07.07</t>
-  </si>
-  <si>
-    <t>17DQTQA1</t>
-  </si>
-  <si>
-    <t>0969.219.216</t>
-  </si>
-  <si>
-    <t>ngocquynh.ngt@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Ngọc </t>
-  </si>
-  <si>
-    <t>Quỳnh</t>
-  </si>
-  <si>
-    <t>ENG120</t>
-  </si>
-  <si>
-    <t>Listening and Speaking 4</t>
-  </si>
-  <si>
-    <t>WS00220764</t>
-  </si>
-  <si>
-    <t>Steven Weiner</t>
-  </si>
-  <si>
-    <t>B-07.08</t>
-  </si>
-  <si>
-    <t>17DTAQA1</t>
-  </si>
-  <si>
-    <t>079.7730.510</t>
-  </si>
-  <si>
-    <t>sgw777@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steven </t>
-  </si>
-  <si>
-    <t>Weiner</t>
-  </si>
-  <si>
-    <t>Q767</t>
-  </si>
-  <si>
-    <t>SKL102</t>
-  </si>
-  <si>
-    <t>Presentation and Job Seeking Skills</t>
-  </si>
-  <si>
-    <t>DĐK0011168</t>
-  </si>
-  <si>
-    <t>Đoàn Khánh Diễm</t>
-  </si>
-  <si>
-    <t>B-07.10</t>
-  </si>
-  <si>
-    <t>17DTAQA2</t>
-  </si>
-  <si>
-    <t>29/04/19 - 30/06/19</t>
-  </si>
-  <si>
-    <t>35-43</t>
-  </si>
-  <si>
-    <t>0903.095.268</t>
-  </si>
-  <si>
-    <t>diemkhanhdoan@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đoàn Khánh </t>
-  </si>
-  <si>
-    <t>Diễm</t>
-  </si>
-  <si>
-    <t>Q06</t>
-  </si>
-  <si>
-    <t>COS211</t>
-  </si>
-  <si>
-    <t>Graph Theory</t>
-  </si>
-  <si>
-    <t>TPST010785</t>
-  </si>
-  <si>
-    <t>Phạm Sự Tiến Trình</t>
-  </si>
-  <si>
-    <t>B-07.09</t>
-  </si>
-  <si>
-    <t>17DTHQA1</t>
-  </si>
-  <si>
-    <t>389.522.914</t>
-  </si>
-  <si>
-    <t>phamsutientrinh@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Thị Ngọc </t>
-  </si>
-  <si>
-    <t>Thơ?</t>
-  </si>
-  <si>
-    <t>LNPT191083</t>
-  </si>
-  <si>
-    <t>Nguyễn Phụ Thượng Lưu</t>
-  </si>
-  <si>
-    <t>18DOTQA2</t>
-  </si>
-  <si>
-    <t>0909.744.607</t>
-  </si>
-  <si>
-    <t>npt.luu@hutech.edu.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Phụ Thượng </t>
-  </si>
-  <si>
-    <t>Lưu</t>
-  </si>
-  <si>
-    <t>ENG159</t>
-  </si>
-  <si>
-    <t>English Listening and Speaking 1</t>
-  </si>
-  <si>
-    <t>YVTP010186</t>
-  </si>
-  <si>
-    <t>Võ Tú Phi Yến</t>
-  </si>
-  <si>
-    <t>B-07.05</t>
-  </si>
-  <si>
-    <t>18DTAQA1</t>
-  </si>
-  <si>
-    <t>06/05/19 - 30/06/19</t>
-  </si>
-  <si>
-    <t>36,38-43</t>
-  </si>
-  <si>
-    <t>0988 608 336</t>
-  </si>
-  <si>
-    <t>vtp.yen@hutech.edu.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Tú Phi </t>
-  </si>
-  <si>
-    <t>Yến</t>
   </si>
   <si>
     <t>347.270.787</t>
@@ -514,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -567,26 +306,6 @@
       <family val="1"/>
       <charset val="163"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -608,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -740,45 +459,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -857,42 +543,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1210,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF972850-2CF9-D54D-84F9-D677B5E77A5D}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1339,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>7</v>
@@ -1349,7 +999,7 @@
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="6" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>14</v>
@@ -1405,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>7</v>
@@ -1415,7 +1065,7 @@
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="6" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>14</v>
@@ -1627,582 +1277,6 @@
       <c r="V6" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="61" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="14">
-        <v>5</v>
-      </c>
-      <c r="E7" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="14">
-        <v>6</v>
-      </c>
-      <c r="I7" s="14">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14">
-        <v>5</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="V7" s="20">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-    </row>
-    <row r="9" spans="1:26" ht="61" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="14">
-        <v>6</v>
-      </c>
-      <c r="I9" s="14">
-        <v>1</v>
-      </c>
-      <c r="J9" s="14">
-        <v>5</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="V9" s="20">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="61" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="14">
-        <v>3</v>
-      </c>
-      <c r="E10" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="14">
-        <v>6</v>
-      </c>
-      <c r="I10" s="14">
-        <v>1</v>
-      </c>
-      <c r="J10" s="14">
-        <v>3</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="T10" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="V10" s="20">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="61" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="14">
-        <v>3</v>
-      </c>
-      <c r="E11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="14">
-        <v>6</v>
-      </c>
-      <c r="I11" s="14">
-        <v>1</v>
-      </c>
-      <c r="J11" s="14">
-        <v>3</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="T11" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="U11" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="V11" s="20">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="76" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="33">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="33">
-        <v>6</v>
-      </c>
-      <c r="I12" s="33">
-        <v>1</v>
-      </c>
-      <c r="J12" s="33">
-        <v>5</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="S12" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="T12" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="V12" s="20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="29">
-        <v>3</v>
-      </c>
-      <c r="E13" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="29">
-        <v>6</v>
-      </c>
-      <c r="I13" s="29">
-        <v>1</v>
-      </c>
-      <c r="J13" s="29">
-        <v>3</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="S13" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="T13" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="U13" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="V13" s="20">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="46" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="14">
-        <v>6</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
-        <v>5</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="S14" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="U14" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="V14" s="20">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="76" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="14">
-        <v>3</v>
-      </c>
-      <c r="E15" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="14">
-        <v>6</v>
-      </c>
-      <c r="I15" s="14">
-        <v>1</v>
-      </c>
-      <c r="J15" s="14">
-        <v>3</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="T15" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="U15" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="V15" s="39">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2213,7 +1287,6 @@
     <hyperlink ref="S4" r:id="rId5" display="mailto:nguyenhuynhmaixuan.nhks@gmail.com" xr:uid="{4B15A10B-3526-C541-8121-7BE118F51D68}"/>
     <hyperlink ref="S5" r:id="rId6" display="mailto:k.nguyentho@gmail.com" xr:uid="{DCD9FC1C-3D10-504C-8F9F-B1D357426513}"/>
     <hyperlink ref="S6" r:id="rId7" display="mailto:nghiemtanphong@gmail.com" xr:uid="{031AA2A6-A661-1148-B2A4-132FAAC24D64}"/>
-    <hyperlink ref="S13" r:id="rId8" display="mailto:tt.trang@hutech.edu.vn" xr:uid="{CC6E1848-0CD7-544D-94EA-B7FB7666BCDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
